--- a/doc/ue_Insights.xlsx
+++ b/doc/ue_Insights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765EBE6-4DC8-441E-97A2-34DA0473A6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E43978-DB3D-46FD-B380-5E4ED0A98700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="文件模式" sheetId="4" r:id="rId3"/>
     <sheet name="打点" sheetId="6" r:id="rId4"/>
     <sheet name="IO线程" sheetId="7" r:id="rId5"/>
-    <sheet name="优化" sheetId="8" r:id="rId6"/>
+    <sheet name="Channel" sheetId="9" r:id="rId6"/>
+    <sheet name="优化" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="119">
   <si>
     <t>UE的性能监控工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +323,88 @@
   </si>
   <si>
     <t>UPTRINT DataHandle = FileOpen(Path);</t>
+  </si>
+  <si>
+    <t>// We're now connected. If we don't appear to have any channels we'll set</t>
+  </si>
+  <si>
+    <t>// some defaults for the user. Less futzing.</t>
+  </si>
+  <si>
+    <t>if (!Channels.Num())</t>
+  </si>
+  <si>
+    <t>FString Value;</t>
+  </si>
+  <si>
+    <t>if (!GConfig-&gt;GetString(TEXT("Trace.ChannelPresets"), TEXT("Default"), Value, GEngineIni))</t>
+  </si>
+  <si>
+    <t>Value = TEXT("cpu,frame,log,bookmark");</t>
+  </si>
+  <si>
+    <t>AddChannels(*Value);</t>
+  </si>
+  <si>
+    <t>EnableChannels();</t>
+  </si>
+  <si>
+    <t>UE_TRACE_CHANNEL_EXTERN(CpuChannel, CORE_API);</t>
+  </si>
+  <si>
+    <t>#define UE_TRACE_CHANNEL_EXTERN(ChannelName, ...)</t>
+  </si>
+  <si>
+    <t>TRACE_PRIVATE_CHANNEL_EXTERN(ChannelName, ##__VA_ARGS__)</t>
+  </si>
+  <si>
+    <t>#define TRACE_PRIVATE_CHANNEL_EXTERN(ChannelName, ...) \</t>
+  </si>
+  <si>
+    <t>__VA_ARGS__ extern Trace::FChannel&amp; ChannelName;</t>
+  </si>
+  <si>
+    <t>#define TRACE_CPUPROFILER_EVENT_SCOPE(Name) \</t>
+  </si>
+  <si>
+    <t>TRACE_CPUPROFILER_EVENT_SCOPE_ON_CHANNEL(Name, CpuChannel)</t>
+  </si>
+  <si>
+    <t>默认打点的都是CPUChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启这个Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOPED_NAMED_EVENT(UCharacterMovementComponent_TickComponent, FColor::Yellow);</t>
+  </si>
+  <si>
+    <t>#define SCOPED_NAMED_EVENT(Name, Color)\</t>
+  </si>
+  <si>
+    <t>FScopedNamedEventStatic ANONYMOUS_VARIABLE(NamedEvent_##Name##_)(Color, NAMED_EVENT_STR(#Name));\</t>
+  </si>
+  <si>
+    <t>TRACE_CPUPROFILER_EVENT_SCOPE(Name);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class FChannel </t>
+  </si>
+  <si>
+    <t>重载了|操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inline bool FChannel::operator | (const FChannel&amp; Rhs) const</t>
+  </si>
+  <si>
+    <t>return IsEnabled() &amp;&amp; Rhs.IsEnabled();</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFF85D6-C7AA-4623-A37C-F58A43C2E0C4}">
   <dimension ref="B2:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -1738,6 +1821,183 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F099E1D-DD89-4051-AEF7-0DF026EBD102}">
+  <dimension ref="B2:U37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA3B48-869F-44A9-B459-FF8F149F1F5C}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/doc/ue_Insights.xlsx
+++ b/doc/ue_Insights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E43978-DB3D-46FD-B380-5E4ED0A98700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C74074-D159-454F-B9D7-3AD6B23097F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="打点" sheetId="6" r:id="rId4"/>
     <sheet name="IO线程" sheetId="7" r:id="rId5"/>
     <sheet name="Channel" sheetId="9" r:id="rId6"/>
-    <sheet name="优化" sheetId="8" r:id="rId7"/>
+    <sheet name="动态指令" sheetId="10" r:id="rId7"/>
+    <sheet name="优化" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
   <si>
     <t>UE的性能监控工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +406,103 @@
   </si>
   <si>
     <t>return IsEnabled() &amp;&amp; Rhs.IsEnabled();</t>
+  </si>
+  <si>
+    <t>开启UE_TRACE_ENABLED宏的情况下，运行时，可以通过指令开启（后续可以修改成网络模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>////////////////////////////////////////////////////////////////////////////////</t>
+  </si>
+  <si>
+    <t>static void TraceAuxiliaryStart(const TArray&lt;FString&gt;&amp; Args)</t>
+  </si>
+  <si>
+    <t>if (Args.Num() &gt; 0)</t>
+  </si>
+  <si>
+    <t>GTraceAuxiliary.AddChannels(*(Args[0]));</t>
+  </si>
+  <si>
+    <t>if (!GTraceAuxiliary.Connect(ETraceConnectType::File, nullptr))</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogConsoleResponse, Warning, TEXT("Failed to start tracing to a file"));</t>
+  </si>
+  <si>
+    <t>// Give the user some feedback that everything's underway.</t>
+  </si>
+  <si>
+    <t>FString Channels;</t>
+  </si>
+  <si>
+    <t>GTraceAuxiliary.ReadChannels([&amp;Channels] (const TCHAR* Channel)</t>
+  </si>
+  <si>
+    <t>if (Channels.Len())</t>
+  </si>
+  <si>
+    <t>Channels += TEXT(",");</t>
+  </si>
+  <si>
+    <t>Channels += Channel;</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogConsoleResponse, Log, TEXT("Tracing to; %s"), GTraceAuxiliary.GetDest());</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogConsoleResponse, Log, TEXT("Trace channels; %s"), *Channels);</t>
+  </si>
+  <si>
+    <t>static void TraceAuxiliaryStop()</t>
+  </si>
+  <si>
+    <t>GTraceAuxiliary.DisableChannels();</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogConsoleResponse, Log, TEXT("Tracing stopped. Use 'Trace.Start' to resume"));</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleCommand TraceAuxiliaryStartCmd(</t>
+  </si>
+  <si>
+    <t>TEXT("Trace.Start"),</t>
+  </si>
+  <si>
+    <t>TEXT(</t>
+  </si>
+  <si>
+    <t>Begin tracing profiling events to a file; Trace.Start [ChannelSet]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> where ChannelSet is either comma-separated list of trace channels, a Config/Trace.ChannelPresets key, or optional.</t>
+  </si>
+  <si>
+    <t>),</t>
+  </si>
+  <si>
+    <t>FConsoleCommandWithArgsDelegate::CreateStatic(TraceAuxiliaryStart)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>static FAutoConsoleCommand TraceAuxiliaryStopCmd(</t>
+  </si>
+  <si>
+    <t>TEXT("Trace.Stop"),</t>
+  </si>
+  <si>
+    <t>TEXT("Stops tracing profiling events"),</t>
+  </si>
+  <si>
+    <t>FConsoleCommandDelegate::CreateStatic(TraceAuxiliaryStop)</t>
+  </si>
+  <si>
+    <t>#endif // UE_TRACE_ENABLED</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F099E1D-DD89-4051-AEF7-0DF026EBD102}">
   <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1998,6 +2096,268 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAB9392-FF98-4894-AC1A-4097487C1E42}">
+  <dimension ref="B4:F61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCA3B48-869F-44A9-B459-FF8F149F1F5C}">
   <dimension ref="A1"/>
   <sheetViews>
